--- a/data/7108.xlsx
+++ b/data/7108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I673"/>
+  <dimension ref="A1:I674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23939,6 +23939,41 @@
         <v>13570200</v>
       </c>
     </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E674" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F674" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G674" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H674" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I674" t="n">
+        <v>14515600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7108.xlsx
+++ b/data/7108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I674"/>
+  <dimension ref="A1:I675"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23974,6 +23974,41 @@
         <v>14515600</v>
       </c>
     </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E675" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F675" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G675" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H675" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I675" t="n">
+        <v>19389700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7108.xlsx
+++ b/data/7108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I675"/>
+  <dimension ref="A1:I676"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24009,6 +24009,41 @@
         <v>19389700</v>
       </c>
     </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E676" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F676" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G676" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H676" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I676" t="n">
+        <v>7380600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7108.xlsx
+++ b/data/7108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I676"/>
+  <dimension ref="A1:I677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24044,6 +24044,41 @@
         <v>7380600</v>
       </c>
     </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E677" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F677" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G677" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H677" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I677" t="n">
+        <v>38514300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7108.xlsx
+++ b/data/7108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I677"/>
+  <dimension ref="A1:I678"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24079,6 +24079,41 @@
         <v>38514300</v>
       </c>
     </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E678" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F678" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G678" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H678" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="I678" t="n">
+        <v>47323300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7108.xlsx
+++ b/data/7108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I678"/>
+  <dimension ref="A1:I679"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24114,6 +24114,41 @@
         <v>47323300</v>
       </c>
     </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E679" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F679" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G679" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H679" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I679" t="n">
+        <v>18359400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7108.xlsx
+++ b/data/7108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I679"/>
+  <dimension ref="A1:I680"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24149,6 +24149,41 @@
         <v>18359400</v>
       </c>
     </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E680" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F680" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G680" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H680" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I680" t="n">
+        <v>25136100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7108.xlsx
+++ b/data/7108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I680"/>
+  <dimension ref="A1:I681"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24184,6 +24184,41 @@
         <v>25136100</v>
       </c>
     </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E681" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F681" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G681" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H681" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I681" t="n">
+        <v>17487300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7108.xlsx
+++ b/data/7108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I681"/>
+  <dimension ref="A1:I682"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24219,6 +24219,41 @@
         <v>17487300</v>
       </c>
     </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E682" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F682" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G682" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H682" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I682" t="n">
+        <v>45197900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7108.xlsx
+++ b/data/7108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I682"/>
+  <dimension ref="A1:I683"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24254,6 +24254,41 @@
         <v>45197900</v>
       </c>
     </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E683" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F683" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G683" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H683" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I683" t="n">
+        <v>19815800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7108.xlsx
+++ b/data/7108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I683"/>
+  <dimension ref="A1:I684"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24289,6 +24289,41 @@
         <v>19815800</v>
       </c>
     </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E684" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F684" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G684" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H684" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I684" t="n">
+        <v>13889800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7108.xlsx
+++ b/data/7108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I684"/>
+  <dimension ref="A1:I685"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24324,6 +24324,41 @@
         <v>13889800</v>
       </c>
     </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E685" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F685" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G685" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H685" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I685" t="n">
+        <v>14800800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7108.xlsx
+++ b/data/7108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I685"/>
+  <dimension ref="A1:I687"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24359,6 +24359,76 @@
         <v>14800800</v>
       </c>
     </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E686" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F686" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G686" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H686" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I686" t="n">
+        <v>10620400</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E687" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F687" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G687" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H687" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I687" t="n">
+        <v>15866300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7108.xlsx
+++ b/data/7108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I687"/>
+  <dimension ref="A1:I689"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24429,6 +24429,76 @@
         <v>15866300</v>
       </c>
     </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E688" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F688" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G688" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H688" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I688" t="n">
+        <v>9794400</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E689" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F689" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G689" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H689" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I689" t="n">
+        <v>16389100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7108.xlsx
+++ b/data/7108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I689"/>
+  <dimension ref="A1:I690"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24499,6 +24499,41 @@
         <v>16389100</v>
       </c>
     </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E690" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F690" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G690" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H690" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I690" t="n">
+        <v>6648900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7108.xlsx
+++ b/data/7108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I690"/>
+  <dimension ref="A1:I691"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24534,6 +24534,41 @@
         <v>6648900</v>
       </c>
     </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E691" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F691" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G691" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H691" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I691" t="n">
+        <v>7656300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7108.xlsx
+++ b/data/7108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I691"/>
+  <dimension ref="A1:I692"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24569,6 +24569,41 @@
         <v>7656300</v>
       </c>
     </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E692" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F692" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G692" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H692" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I692" t="n">
+        <v>15102700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7108.xlsx
+++ b/data/7108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I692"/>
+  <dimension ref="A1:I693"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24604,6 +24604,41 @@
         <v>15102700</v>
       </c>
     </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E693" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F693" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G693" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H693" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I693" t="n">
+        <v>177436000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7108.xlsx
+++ b/data/7108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I693"/>
+  <dimension ref="A1:I695"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24639,6 +24639,76 @@
         <v>177436000</v>
       </c>
     </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E694" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F694" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G694" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H694" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I694" t="n">
+        <v>115957300</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E695" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F695" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G695" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H695" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I695" t="n">
+        <v>121329500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7108.xlsx
+++ b/data/7108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I695"/>
+  <dimension ref="A1:I696"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24709,6 +24709,41 @@
         <v>121329500</v>
       </c>
     </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E696" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F696" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G696" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H696" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I696" t="n">
+        <v>33402300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7108.xlsx
+++ b/data/7108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I696"/>
+  <dimension ref="A1:I697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24744,6 +24744,41 @@
         <v>33402300</v>
       </c>
     </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E697" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F697" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G697" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H697" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I697" t="n">
+        <v>92020300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7108.xlsx
+++ b/data/7108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2154"/>
+  <dimension ref="A1:I2155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75774,6 +75774,41 @@
         <v>92020300</v>
       </c>
     </row>
+    <row r="2155">
+      <c r="A2155" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2155" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2155" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D2155" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E2155" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2155" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H2155" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I2155" t="n">
+        <v>46849500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7108.xlsx
+++ b/data/7108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2155"/>
+  <dimension ref="A1:I2156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75809,6 +75809,41 @@
         <v>46849500</v>
       </c>
     </row>
+    <row r="2156">
+      <c r="A2156" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2156" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2156" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D2156" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E2156" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2156" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G2156" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2156" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2156" t="n">
+        <v>47142800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7108.xlsx
+++ b/data/7108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2156"/>
+  <dimension ref="A1:I2157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75844,6 +75844,41 @@
         <v>47142800</v>
       </c>
     </row>
+    <row r="2157">
+      <c r="A2157" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2157" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2157" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D2157" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E2157" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G2157" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H2157" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2157" t="n">
+        <v>32800900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7108.xlsx
+++ b/data/7108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2157"/>
+  <dimension ref="A1:I2158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75879,6 +75879,41 @@
         <v>32800900</v>
       </c>
     </row>
+    <row r="2158">
+      <c r="A2158" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2158" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2158" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D2158" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E2158" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G2158" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2158" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2158" t="n">
+        <v>28234000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7108.xlsx
+++ b/data/7108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2158"/>
+  <dimension ref="A1:I2159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75914,6 +75914,41 @@
         <v>28234000</v>
       </c>
     </row>
+    <row r="2159">
+      <c r="A2159" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2159" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2159" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D2159" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E2159" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2159" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H2159" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2159" t="n">
+        <v>83450100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7108.xlsx
+++ b/data/7108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2159"/>
+  <dimension ref="A1:I2160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75949,6 +75949,41 @@
         <v>83450100</v>
       </c>
     </row>
+    <row r="2160">
+      <c r="A2160" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2160" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2160" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D2160" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E2160" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2160" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G2160" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H2160" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2160" t="n">
+        <v>29103200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7108.xlsx
+++ b/data/7108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2160"/>
+  <dimension ref="A1:I2161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75984,6 +75984,41 @@
         <v>29103200</v>
       </c>
     </row>
+    <row r="2161">
+      <c r="A2161" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2161" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2161" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D2161" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E2161" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G2161" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H2161" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2161" t="n">
+        <v>42581700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7108.xlsx
+++ b/data/7108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2161"/>
+  <dimension ref="A1:I2162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76019,6 +76019,41 @@
         <v>42581700</v>
       </c>
     </row>
+    <row r="2162">
+      <c r="A2162" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2162" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2162" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D2162" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E2162" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G2162" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H2162" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2162" t="n">
+        <v>63306600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7108.xlsx
+++ b/data/7108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2162"/>
+  <dimension ref="A1:I2163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76054,6 +76054,41 @@
         <v>63306600</v>
       </c>
     </row>
+    <row r="2163">
+      <c r="A2163" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2163" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2163" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D2163" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E2163" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2163" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G2163" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2163" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2163" t="n">
+        <v>87740800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7108.xlsx
+++ b/data/7108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2163"/>
+  <dimension ref="A1:I2164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76089,6 +76089,41 @@
         <v>87740800</v>
       </c>
     </row>
+    <row r="2164">
+      <c r="A2164" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2164" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2164" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D2164" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E2164" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G2164" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H2164" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2164" t="n">
+        <v>30084500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7108.xlsx
+++ b/data/7108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2164"/>
+  <dimension ref="A1:I2165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76124,6 +76124,41 @@
         <v>30084500</v>
       </c>
     </row>
+    <row r="2165">
+      <c r="A2165" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2165" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2165" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D2165" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E2165" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2165" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G2165" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H2165" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I2165" t="n">
+        <v>15059500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7108.xlsx
+++ b/data/7108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2165"/>
+  <dimension ref="A1:I2166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76159,6 +76159,41 @@
         <v>15059500</v>
       </c>
     </row>
+    <row r="2166">
+      <c r="A2166" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2166" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2166" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D2166" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E2166" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2166" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H2166" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2166" t="n">
+        <v>28092200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7108.xlsx
+++ b/data/7108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2166"/>
+  <dimension ref="A1:I2167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76194,6 +76194,41 @@
         <v>28092200</v>
       </c>
     </row>
+    <row r="2167">
+      <c r="A2167" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2167" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2167" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D2167" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E2167" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F2167" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G2167" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2167" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2167" t="n">
+        <v>52126900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7108.xlsx
+++ b/data/7108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2167"/>
+  <dimension ref="A1:I2168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76229,6 +76229,41 @@
         <v>52126900</v>
       </c>
     </row>
+    <row r="2168">
+      <c r="A2168" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2168" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2168" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D2168" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E2168" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F2168" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G2168" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H2168" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I2168" t="n">
+        <v>145035300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7108.xlsx
+++ b/data/7108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2168"/>
+  <dimension ref="A1:I2169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76264,6 +76264,41 @@
         <v>145035300</v>
       </c>
     </row>
+    <row r="2169">
+      <c r="A2169" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2169" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2169" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="D2169" t="inlineStr">
+        <is>
+          <t>PERDANA</t>
+        </is>
+      </c>
+      <c r="E2169" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2169" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G2169" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H2169" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I2169" t="n">
+        <v>181846400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
